--- a/spliced/walkingToRunning/2023-03-24_10-07-36/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-07-36/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9458236694335938</v>
+        <v>-1.350502490997314</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.780321598052979</v>
+        <v>-5.659398555755615</v>
       </c>
       <c r="E2" t="n">
-        <v>5.630753517150879</v>
+        <v>-3.780858278274536</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.415270102435171</v>
+        <v>-0.2807844198983286</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5314338042818449</v>
+        <v>-0.8123789481047923</v>
       </c>
       <c r="H2" t="n">
-        <v>4.029043727907666</v>
+        <v>-0.09823161813205905</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-5.881309509277344</v>
+        <v>6.421082973480225</v>
       </c>
       <c r="D3" t="n">
-        <v>-30.26239395141602</v>
+        <v>-10.34209537506104</v>
       </c>
       <c r="E3" t="n">
-        <v>12.90286827087402</v>
+        <v>-8.60602855682373</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.314493606830482</v>
+        <v>-0.1417398627462046</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2480275487077682</v>
+        <v>-0.1100757933896112</v>
       </c>
       <c r="H3" t="n">
-        <v>3.206530965607738</v>
+        <v>2.834019057966533</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-47.72857666015625</v>
+        <v>-8.985816955566406</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.63389015197754</v>
+        <v>-4.653406143188477</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.3016414642334</v>
+        <v>-4.82445764541626</v>
       </c>
       <c r="F4" t="n">
-        <v>2.801971287562949</v>
+        <v>-1.13705500035451</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.823644173042532</v>
+        <v>2.739093329500554</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2525709908584024</v>
+        <v>-2.630493768330314</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-12.29190921783447</v>
+        <v>8.638599395751953</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.77882719039917</v>
+        <v>-36.5815658569336</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.05650520324707</v>
+        <v>4.202666282653809</v>
       </c>
       <c r="F5" t="n">
-        <v>4.358451415752542</v>
+        <v>2.9049899660308</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.83039114393037</v>
+        <v>-3.484631538391146</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2956774553348279</v>
+        <v>-2.321273335095107</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.71150207519531</v>
+        <v>0.9458236694335938</v>
       </c>
       <c r="D6" t="n">
-        <v>-27.2324275970459</v>
+        <v>-4.780321598052979</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.215962886810303</v>
+        <v>5.630753517150879</v>
       </c>
       <c r="F6" t="n">
-        <v>7.929245866578198</v>
+        <v>-3.415270102435171</v>
       </c>
       <c r="G6" t="n">
-        <v>4.034436612293629</v>
+        <v>0.5314338042818449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2522587591204151</v>
+        <v>4.029043727907666</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32.41067504882812</v>
+        <v>-5.881309509277344</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.009072303771973</v>
+        <v>-30.26239395141602</v>
       </c>
       <c r="E7" t="n">
-        <v>21.43018341064453</v>
+        <v>12.90286827087402</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.834473840121543</v>
+        <v>-9.314493606830482</v>
       </c>
       <c r="G7" t="n">
-        <v>4.45597813047212</v>
+        <v>-0.2480275487077682</v>
       </c>
       <c r="H7" t="n">
-        <v>2.253706974202184</v>
+        <v>3.206530965607738</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.226425170898438</v>
+        <v>-47.72857666015625</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.756555557250977</v>
+        <v>-15.63389015197754</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5562095642089844</v>
+        <v>-17.3016414642334</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.379544188236389</v>
+        <v>2.801971287562949</v>
       </c>
       <c r="G8" t="n">
-        <v>2.00216909318133</v>
+        <v>-2.823644173042532</v>
       </c>
       <c r="H8" t="n">
-        <v>4.38414403076831</v>
+        <v>0.2525709908584024</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.544495105743408</v>
+        <v>-12.29190921783447</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.85799407958984</v>
+        <v>-4.77882719039917</v>
       </c>
       <c r="E9" t="n">
-        <v>14.00184154510498</v>
+        <v>-10.05650520324707</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.495801197043751</v>
+        <v>4.358451415752542</v>
       </c>
       <c r="G9" t="n">
-        <v>11.70056653022773</v>
+        <v>-4.83039114393037</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6984025085794245</v>
+        <v>0.2956774553348279</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15.75080490112305</v>
+        <v>21.71150207519531</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.57144546508789</v>
+        <v>-27.2324275970459</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.15233612060547</v>
+        <v>-6.215962886810303</v>
       </c>
       <c r="F10" t="n">
-        <v>2.489601142961419</v>
+        <v>7.929245866578198</v>
       </c>
       <c r="G10" t="n">
-        <v>1.782228860361755</v>
+        <v>4.034436612293629</v>
       </c>
       <c r="H10" t="n">
-        <v>3.894388745057194</v>
+        <v>0.2522587591204151</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.36283111572266</v>
+        <v>32.41067504882812</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.39109230041504</v>
+        <v>-4.009072303771973</v>
       </c>
       <c r="E11" t="n">
-        <v>3.477614402770996</v>
+        <v>21.43018341064453</v>
       </c>
       <c r="F11" t="n">
-        <v>7.727643826912207</v>
+        <v>-0.834473840121543</v>
       </c>
       <c r="G11" t="n">
-        <v>6.834787146798529</v>
+        <v>4.45597813047212</v>
       </c>
       <c r="H11" t="n">
-        <v>1.897908695812871</v>
+        <v>2.253706974202184</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-13.44992446899414</v>
+        <v>-4.226425170898438</v>
       </c>
       <c r="D12" t="n">
-        <v>-11.07156848907471</v>
+        <v>-4.756555557250977</v>
       </c>
       <c r="E12" t="n">
-        <v>10.24287509918213</v>
+        <v>-0.5562095642089844</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1587105783922702</v>
+        <v>-5.379544188236389</v>
       </c>
       <c r="G12" t="n">
-        <v>5.019907260763223</v>
+        <v>2.00216909318133</v>
       </c>
       <c r="H12" t="n">
-        <v>1.782309127265012</v>
+        <v>4.38414403076831</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.557040929794312</v>
+        <v>2.544495105743408</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.614107131958008</v>
+        <v>-37.85799407958984</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.701248645782471</v>
+        <v>14.00184154510498</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.217137336730959</v>
+        <v>-1.495801197043751</v>
       </c>
       <c r="G13" t="n">
-        <v>3.712993112103693</v>
+        <v>11.70056653022773</v>
       </c>
       <c r="H13" t="n">
-        <v>5.708451303942454</v>
+        <v>0.6984025085794245</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-82.30638885498047</v>
+        <v>15.75080490112305</v>
       </c>
       <c r="D14" t="n">
-        <v>-41.48257446289063</v>
+        <v>-12.57144546508789</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.42162132263184</v>
+        <v>-16.15233612060547</v>
       </c>
       <c r="F14" t="n">
-        <v>1.931081188136128</v>
+        <v>2.489601142961419</v>
       </c>
       <c r="G14" t="n">
-        <v>1.861609384931368</v>
+        <v>1.782228860361755</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.062639532418077</v>
+        <v>3.894388745057194</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12.51860809326172</v>
+        <v>77.36283111572266</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.532787799835205</v>
+        <v>-23.39109230041504</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.1464672088623</v>
+        <v>3.477614402770996</v>
       </c>
       <c r="F15" t="n">
-        <v>3.396664668773761</v>
+        <v>7.727643826912207</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.718913538702679</v>
+        <v>6.834787146798529</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.399837789864275</v>
+        <v>1.897908695812871</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25.23304176330566</v>
+        <v>-13.44992446899414</v>
       </c>
       <c r="D16" t="n">
-        <v>-12.49789237976074</v>
+        <v>-11.07156848907471</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0257043838501</v>
+        <v>10.24287509918213</v>
       </c>
       <c r="F16" t="n">
-        <v>6.86892145666587</v>
+        <v>0.1587105783922702</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.869332508794124</v>
+        <v>5.019907260763223</v>
       </c>
       <c r="H16" t="n">
-        <v>1.079519285724066</v>
+        <v>1.782309127265012</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.69987106323243</v>
+        <v>-2.557040929794312</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.908939123153687</v>
+        <v>-6.614107131958008</v>
       </c>
       <c r="E17" t="n">
-        <v>11.61045837402344</v>
+        <v>-1.701248645782471</v>
       </c>
       <c r="F17" t="n">
-        <v>1.767213952952357</v>
+        <v>-5.217137336730959</v>
       </c>
       <c r="G17" t="n">
-        <v>1.710883551630483</v>
+        <v>3.712993112103693</v>
       </c>
       <c r="H17" t="n">
-        <v>1.963973425585661</v>
+        <v>5.708451303942454</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.486310958862305</v>
+        <v>-82.30638885498047</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.500723719596863</v>
+        <v>-41.48257446289063</v>
       </c>
       <c r="E18" t="n">
-        <v>4.869987487792969</v>
+        <v>-24.42162132263184</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.255076243959633</v>
+        <v>1.931081188136128</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04516811000888521</v>
+        <v>1.861609384931368</v>
       </c>
       <c r="H18" t="n">
-        <v>5.548670966049739</v>
+        <v>-5.062639532418077</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-9.412309646606444</v>
+        <v>12.51860809326172</v>
       </c>
       <c r="D19" t="n">
-        <v>-35.61527252197266</v>
+        <v>-2.532787799835205</v>
       </c>
       <c r="E19" t="n">
-        <v>2.476359844207764</v>
+        <v>-16.1464672088623</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7715866319064268</v>
+        <v>3.396664668773761</v>
       </c>
       <c r="G19" t="n">
-        <v>8.701057298430134</v>
+        <v>-5.718913538702679</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.006967774752950184</v>
+        <v>-1.399837789864275</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10.05931091308594</v>
+        <v>25.23304176330566</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.656819343566895</v>
+        <v>-12.49789237976074</v>
       </c>
       <c r="E20" t="n">
-        <v>-13.41165542602539</v>
+        <v>10.0257043838501</v>
       </c>
       <c r="F20" t="n">
-        <v>1.181180877932187</v>
+        <v>6.86892145666587</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.4844702030050883</v>
+        <v>-1.869332508794124</v>
       </c>
       <c r="H20" t="n">
-        <v>1.036063860202677</v>
+        <v>1.079519285724066</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>25.69987106323243</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.908939123153687</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.61045837402344</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.767213952952357</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.710883551630483</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.963973425585661</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7.486310958862305</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.500723719596863</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.869987487792969</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3.255076243959633</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04516811000888521</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.548670966049739</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-9.412309646606444</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-35.61527252197266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.476359844207764</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.7715866319064268</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8.701057298430134</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.006967774752950184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10.05931091308594</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.656819343566895</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-13.41165542602539</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.181180877932187</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.4844702030050883</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.036063860202677</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>-0.115725427865982</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>-15.31198501586914</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>-12.16327095031738</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>5.493912943478295</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>-2.113819895119489</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>1.030801805956604</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-12.95152854919434</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-7.215466022491455</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.712479591369629</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.463171288884921</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.284831554725252</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6873917538544219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.57819402217865</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.682579040527344</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.256365299224854</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.070133529860395</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.359637453638269</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.026170623713525</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-8.448655128479004</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-33.68074035644531</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-12.51845359802246</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.565556277488823</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.97180558895251</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.010093347779601</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>71.44110107421875</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.458947658538818</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-16.25710296630859</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.5303593524571014</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.632135161037951</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3993937804781349</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7.958407878875732</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.263494491577148</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-17.78672790527344</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.747484356164973</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-6.67747688293454</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.334976077079803</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-30.355712890625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-23.57818984985352</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.899335861206055</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.688300560260526</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.088815121815081</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.408782399933858</v>
       </c>
     </row>
   </sheetData>
